--- a/qa/01.测试用例/登录界面流程/登录流程测试用例.xlsx
+++ b/qa/01.测试用例/登录界面流程/登录流程测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="多语言" sheetId="7" r:id="rId5"/>
     <sheet name="提示信息" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="520">
   <si>
     <t>caseID</t>
   </si>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹出整包更新对话框，点击确定后进入patch更新检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出patch更新对话框，patch更新结束后，进入登录界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满足上述条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,10 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满足上述条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功登录，登陆后跳转公告界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +1000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示为“确定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看公告内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1104,10 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击切换按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,27 +1104,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示为“Tap to Play”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1383,249 +1347,671 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查看服务器详细列表（普通服务器列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务器详细列表（推荐服务器列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示服务器及角色信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为玩家有角色的服务器信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色等级由大到小从上到下排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括服务器序号+服务器名称 +角色名称+当前等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对应服务器角色已经起名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对应服务器角色未起名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示已起名的角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“nickname”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看推荐服务器列表（右上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击服务器详细列表项中的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回服务器选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务器选择界面右上角服务器显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为刚才所选择的服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选服务器状态为非维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选服务器状态为维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用UI通用逻辑的提示窗口</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前服务器正在维护，请稍后再试！</t>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示窗口关闭，保留在服务器选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看创建角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看头像选择部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括提示文字和头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“选个好看的头像吧！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看备选头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示4个系统备选头像，默认选择第一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示1个Facebook头像和4个系统备选头像，默认选择Facebook头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选择头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点选已选择头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点选未选择头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所点击头像变为已选择样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看起名部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含提示文字、输入框和确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“起个响亮的名字吧！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出输入法界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看输入框位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝成输入法界面不会遮挡输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【确定】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“确定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入以上组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个角色叫kathy，创建其他角色查看检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KATHy</t>
+  </si>
+  <si>
+    <t>KaTHy</t>
+  </si>
+  <si>
+    <t>kAThy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息ID：login_namederror_001</t>
+  </si>
+  <si>
+    <t>创建角色成功后直接进入游戏</t>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开连接提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中与服务器断开连接，查看客户端提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未与服务器发生通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器发生通信，1000ms内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器发生通信，1000ms后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示 内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“已与服务器断开连接，请重新登录！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“确定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入登录loading界面，重新进行登录校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶号提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家A登陆游戏，其他人登录游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用相同fun+ID登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用不相同fun+ID登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家A被顶号，弹出提示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“该账号已在其他设备上登录，请确认账号安全并重新登录！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新登录账号默认给一个名，通关副本0后弹出创建角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多输一些反斜杠和引号之类的，没准客户端就挂了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些表情应该识别不出来吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建名称后保留名称样式，即创建AaaA显示的就是AaaA不会显示为别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出整包更新对话框，点击确定后进行整包更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述条件符合要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“OK”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容-已有账号-客户端无记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1832</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1833</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1835</t>
+  </si>
+  <si>
+    <t>BG-1836</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1839</t>
+  </si>
+  <si>
+    <t>BG-1840</t>
+  </si>
+  <si>
+    <t>BG-1842</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1844</t>
+  </si>
+  <si>
+    <t>点击推荐服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择推荐服务器返回上一界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1846</t>
+  </si>
+  <si>
+    <t>BG-1848</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务器状态显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为full（255,0,0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为new（122,255,0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为hot（255,204,0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为maintain（143,143,143）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择服务器组B（11-15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>服务器11  服务器12
 服务器13  服务器14
-服务器15  服务器16
-服务器17  服务器18
-服务器19  服务器20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看服务器详细列表（普通服务器列表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看服务器详细列表（推荐服务器列表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示服务器及角色信息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为玩家有角色的服务器信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据角色等级由大到小从上到下排列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括服务器序号+服务器名称 +角色名称+当前等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在对应服务器角色已经起名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在对应服务器角色未起名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示已起名的角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“nickname”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看推荐服务器列表（右上）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击服务器详细列表项中的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回服务器选择界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看服务器选择界面右上角服务器显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为刚才所选择的服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所选服务器状态为非维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所选服务器状态为维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看提示窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采用UI通用逻辑的提示窗口</t>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前服务器正在维护，请稍后再试！</t>
-  </si>
-  <si>
-    <t>点击确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示窗口关闭，保留在服务器选择界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建角色界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看创建角色界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看头像选择部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括提示文字和头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看提示文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“选个好看的头像吧！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看备选头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录Facebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录Facebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示4个系统备选头像，默认选择第一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示1个Facebook头像和4个系统备选头像，默认选择Facebook头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击选择头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点选已选择头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点选未选择头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所点击头像变为已选择样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看起名部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含提示文字、输入框和确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“起个响亮的名字吧！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样式</t>
+服务器15  空
+空  空
+空  空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1850</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1852</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1855</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1856</t>
+  </si>
+  <si>
+    <t>断网场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同场景断网，查看提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1633,203 +2019,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出输入法界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看输入框位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝成输入法界面不会遮挡输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看【确定】按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“确定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入以上组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建一个角色叫kathy，创建其他角色查看检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KATHy</t>
-  </si>
-  <si>
-    <t>KaTHy</t>
-  </si>
-  <si>
-    <t>kAThy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kathy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息ID：login_namederror_001</t>
-  </si>
-  <si>
-    <t>创建角色成功后直接进入游戏</t>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断开连接提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在游戏中与服务器断开连接，查看客户端提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未与服务器发生通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器发生通信，1000ms内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器发生通信，1000ms后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出提示界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看提示界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看提示 内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“已与服务器断开连接，请重新登录！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“确定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入登录loading界面，重新进行登录校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶号提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家A登陆游戏，其他人登录游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用相同fun+ID登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用不相同fun+ID登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家A被顶号，弹出提示界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“该账号已在其他设备上登录，请确认账号安全并重新登录！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶号场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同场景被顶号，查看提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新登录，查看结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常进行游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1857</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1859</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1860</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,6 +2198,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2013,7 +2265,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2027,8 +2279,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2124,15 +2379,290 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="常规 2 2" xfId="4"/>
     <cellStyle name="常规 3 2" xfId="2"/>
     <cellStyle name="常规_目录" xfId="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2617,13 +3147,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2052638</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2655,13 +3185,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>197467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2702,13 +3232,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>134710</xdr:rowOff>
@@ -2745,13 +3275,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1515706</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>51530</xdr:rowOff>
@@ -2783,15 +3313,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2066413</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>139128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3259,13 +3789,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G179" sqref="G179"/>
+      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3340,6 +3870,12 @@
       <c r="G3" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D4" s="5">
@@ -3352,7 +3888,10 @@
         <v>63</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
+        <v>446</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -3362,6 +3901,9 @@
       <c r="G5" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D6" s="5">
@@ -3374,7 +3916,10 @@
         <v>67</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -3384,35 +3929,44 @@
       <c r="G7" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D8" s="5">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -3420,21 +3974,30 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -3442,27 +4005,36 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>83</v>
+      <c r="H13" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>87</v>
+      <c r="H15" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -3470,1408 +4042,1814 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D17" s="5">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D21" s="5">
         <v>3</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F24" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F24" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D25" s="5">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H26" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="5">
         <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="H29" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="33" x14ac:dyDescent="0.15">
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E31" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F32" s="4" t="s">
+      <c r="H32" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F35" s="4" t="s">
+      <c r="H35" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F37" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F37" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D39" s="5">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F40" s="4" t="s">
+      <c r="H40" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F42" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F42" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E43" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D44" s="5">
         <v>5</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H44" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D45" s="5">
         <v>6</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H45" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D46" s="5">
         <v>7</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F47" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E48" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F49" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F50" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E52" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F53" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F57" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F56" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F57" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D58" s="5">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F59" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F59" s="4" t="s">
+      <c r="H59" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F60" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F61" s="4" t="s">
+      <c r="H61" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F62" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F62" s="4" t="s">
+      <c r="H62" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F63" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F64" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F65" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G65" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F66" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F65" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="H66" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F66" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B68" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D68" s="5">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H68" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F70" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G70" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F70" s="4" t="s">
+      <c r="H70" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F71" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F71" s="4" t="s">
+      <c r="H71" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F72" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F72" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H72" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F75" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="H75" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F76" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="H76" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F77" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="H77" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F78" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F78" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H78" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D79" s="5">
         <v>2</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B81" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="D81" s="5">
         <v>1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G81" s="6" t="s">
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F83" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F82" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F83" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F86" s="4" t="s">
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F87" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F87" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D88" s="5">
         <v>5</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G91" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F92" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E91" s="4" t="s">
+      <c r="G92" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F93" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G93" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F94" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F92" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G92" s="6" t="s">
+      <c r="H94" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E95" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F93" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="F95" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F94" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G94" s="6" t="s">
+      <c r="G95" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F96" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E95" s="4" t="s">
+      <c r="G96" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F97" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G97" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F98" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F96" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G96" s="6" t="s">
+      <c r="H98" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E99" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F97" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G97" s="6" t="s">
+      <c r="F99" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F100" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F98" s="4" t="s">
+      <c r="G100" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F101" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E99" s="4" t="s">
+      <c r="H101" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F102" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F100" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F101" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F102" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="G102" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F104" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="H104" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F105" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F104" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F105" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H105" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D106" s="5">
         <v>3</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D108" s="5">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F110" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I110" s="39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F111" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="G111" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F110" s="4" t="s">
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F112" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G110" s="6" t="s">
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D113" s="5">
+        <v>3</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F111" s="4" t="s">
+      <c r="F113" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G113" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F114" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F112" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F113" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F114" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D115" s="5">
+      <c r="G114" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I114" s="39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E115" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I115" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D116" s="5">
+        <v>4</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F117" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E118" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F119" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I119" s="39" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F123" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F124" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="E125" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="F126" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F127" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I127" s="39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E128" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I128" s="39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F129" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I129" s="39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E130" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D131" s="5">
         <v>3</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F116" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F117" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F118" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E119" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D120" s="5">
-        <v>4</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F121" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F122" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F123" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E124" s="4" t="s">
+      <c r="E131" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="G131" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="132" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F132" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G124" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F125" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D127" s="5">
-        <v>1</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D128" s="5">
-        <v>2</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F129" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F130" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="131" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="E131" s="4" t="s">
+      <c r="G132" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F133" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F131" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F132" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F133" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="G133" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E134" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H134" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9" ht="33" x14ac:dyDescent="0.15">
       <c r="F135" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H135" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I135" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="136" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E136" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="F136" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="G136" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="137" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F137" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D137" s="5">
-        <v>3</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="G137" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F138" s="4" t="s">
-        <v>296</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E138" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I138" s="39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="139" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D139" s="5">
+        <v>4</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="F139" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E140" s="4" t="s">
-        <v>316</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F140" s="4" t="s">
         <v>317</v>
       </c>
       <c r="G140" s="6" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="141" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="H140" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E141" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="F141" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E142" s="4" t="s">
-        <v>321</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F142" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H142" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="143" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E143" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="F143" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G143" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F144" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F145" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E146" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F147" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F148" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F149" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="150" spans="4:9" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="E150" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="151" spans="4:9" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="F151" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D152" s="5">
+        <v>5</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="153" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F153" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E154" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D144" s="5">
-        <v>4</v>
-      </c>
-      <c r="E144" s="4" t="s">
+      <c r="G154" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I154" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="155" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E155" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F156" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F157" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="I157" s="39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E158" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F145" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E146" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F147" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E148" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F149" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F150" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="151" spans="4:7" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="E151" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="152" spans="4:7" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="F152" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G152" s="6" t="s">
+      <c r="H158" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F159" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D153" s="5">
-        <v>5</v>
-      </c>
-      <c r="E153" s="4" t="s">
+      <c r="G159" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F154" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G154" s="6" t="s">
+      <c r="H159" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="160" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D160" s="5">
+        <v>6</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E155" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G155" s="6" t="s">
+      <c r="F160" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E156" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F157" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G157" s="6" t="s">
+      <c r="H160" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="161" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F161" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E162" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F158" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G158" s="6" t="s">
+      <c r="G162" s="6" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E159" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G159" s="6" t="s">
+      <c r="H162" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="163" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D163" s="5">
+        <v>7</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F160" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G160" s="6" t="s">
+      <c r="F163" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D161" s="5">
-        <v>6</v>
-      </c>
-      <c r="E161" s="4" t="s">
+      <c r="G163" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="164" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F164" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G161" s="6" t="s">
+      <c r="G164" s="6" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F162" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E163" s="4" t="s">
+      <c r="H164" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="I164" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="165" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E165" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G163" s="6" t="s">
+      <c r="G165" s="6" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D164" s="5">
-        <v>7</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F165" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E166" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>371</v>
+      <c r="H165" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -4879,33 +5857,62 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="11" priority="30" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:H118 H120:H1048576">
+    <cfRule type="cellIs" dxfId="20" priority="34" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H119">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-1832"/>
+    <hyperlink ref="I8" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1833"/>
+    <hyperlink ref="I12" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-1835"/>
+    <hyperlink ref="I13" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-1836"/>
+    <hyperlink ref="I110" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-1839"/>
+    <hyperlink ref="I114" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-1840"/>
+    <hyperlink ref="I115" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-1842"/>
+    <hyperlink ref="I119" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-1836"/>
+    <hyperlink ref="I135" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-1844"/>
+    <hyperlink ref="I138" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-1846"/>
+    <hyperlink ref="I128" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-1848"/>
+    <hyperlink ref="I129" r:id="rId12" display="http://192.168.199.122:8880/browse/BG-1848"/>
+    <hyperlink ref="I127" r:id="rId13" display="http://192.168.199.122:8880/browse/BG-1850"/>
+    <hyperlink ref="I154" r:id="rId14" display="http://192.168.199.122:8880/browse/BG-1852"/>
+    <hyperlink ref="I164" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-1855"/>
+    <hyperlink ref="I157" r:id="rId16" display="http://192.168.199.122:8880/browse/BG-1856"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4916,23 +5923,23 @@
     <col min="4" max="4" width="5.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="7" max="8" width="43.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4954,353 +5961,370 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F5" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F7" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E10" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F10" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="F11" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F5" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E6" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E12" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F7" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F12" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F8" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G8" s="6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F13" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F9" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E10" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="F11" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E12" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F13" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D14" s="5">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F15" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E16" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F17" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F18" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F19" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E20" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F21" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E22" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="6" t="s">
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E23" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F15" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G15" s="6" t="s">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E24" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E16" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F17" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F24" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F25" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F18" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F19" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E20" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F21" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E22" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E23" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E24" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F25" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F26" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F27" s="4" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D28" s="5">
         <v>4</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F29" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F30" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F31" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F32" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F29" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F30" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F31" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F32" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="33" x14ac:dyDescent="0.15">
       <c r="D33" s="5">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F34" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F35" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F36" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="1">
+      <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5312,13 +6336,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5329,23 +6353,23 @@
     <col min="4" max="4" width="5.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
     <col min="6" max="6" width="38.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="7" max="8" width="43.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5367,276 +6391,395 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F4" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F5" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F10" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I11" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F14" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F15" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E7" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F18" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F19" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F8" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="I19" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E21" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="F22" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F9" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F10" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D11" s="5">
+      <c r="I22" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D23" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F12" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F13" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F14" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D15" s="5">
+      <c r="E23" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F24" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D25" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="E25" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F18" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D19" s="5">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E20" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F21" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F22" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F23" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F25" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F26" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E27" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D28" s="5">
-        <v>4</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>445</v>
+        <v>507</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F28" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>446</v>
+        <v>507</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F29" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I21 I23:I1048576">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="4">
+      <formula>LEN(TRIM(H1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
@@ -5647,9 +6790,15 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J16" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-1857"/>
+    <hyperlink ref="J3" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1859"/>
+    <hyperlink ref="J8" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-1860"/>
+    <hyperlink ref="J22" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-1860"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/qa/01.测试用例/登录界面流程/登录流程测试用例.xlsx
+++ b/qa/01.测试用例/登录界面流程/登录流程测试用例.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="528">
   <si>
     <t>caseID</t>
   </si>
@@ -1769,22 +1769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新登录账号默认给一个名，通关副本0后弹出创建角色界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多输一些反斜杠和引号之类的，没准客户端就挂了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些表情应该识别不出来吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建名称后保留名称样式，即创建AaaA显示的就是AaaA不会显示为别的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出整包更新对话框，点击确定后进行整包更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2066,6 +2050,54 @@
   </si>
   <si>
     <t>BG-1860</t>
+  </si>
+  <si>
+    <t>完成副本0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入创建角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入各种其他符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏后查看创建角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与输入的名称一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色后进入游戏，查看玩家头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用facebook帐号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用facebook帐号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家头像显示为facebook头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为游戏默认头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2208,7 +2240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2224,6 +2256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6699FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2283,7 +2321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2373,14 +2411,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2391,7 +2435,7 @@
     <cellStyle name="常规_目录" xfId="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -2475,213 +2519,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -3233,19 +3070,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134710</xdr:rowOff>
+      <xdr:colOff>484726</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>402131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3258,8 +3095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13468349" y="628650"/>
-          <a:ext cx="2809875" cy="1563460"/>
+          <a:off x="16802099" y="628651"/>
+          <a:ext cx="3246977" cy="2040430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3818,9 +3655,9 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3871,10 +3708,10 @@
         <v>61</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>454</v>
+        <v>449</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3888,10 +3725,10 @@
         <v>63</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -3902,7 +3739,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -3919,7 +3756,7 @@
         <v>70</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -3930,7 +3767,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -3947,10 +3784,10 @@
         <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>456</v>
+        <v>451</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -3983,7 +3820,7 @@
         <v>79</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -3994,10 +3831,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>459</v>
+        <v>454</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -4011,10 +3848,10 @@
         <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>460</v>
+        <v>451</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -4034,7 +3871,7 @@
         <v>86</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -4048,7 +3885,7 @@
         <v>88</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -4062,7 +3899,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -4082,7 +3919,7 @@
         <v>93</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
@@ -4096,7 +3933,7 @@
         <v>95</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -4113,7 +3950,7 @@
         <v>93</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
@@ -4124,7 +3961,7 @@
         <v>101</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
@@ -4135,7 +3972,7 @@
         <v>102</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
@@ -4146,7 +3983,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
@@ -4163,7 +4000,7 @@
         <v>106</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
@@ -4174,7 +4011,7 @@
         <v>107</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
@@ -4188,7 +4025,7 @@
         <v>109</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
@@ -4208,7 +4045,7 @@
         <v>113</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="33" x14ac:dyDescent="0.15">
@@ -4222,7 +4059,7 @@
         <v>115</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
@@ -4236,7 +4073,7 @@
         <v>120</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
@@ -4247,7 +4084,7 @@
         <v>121</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.15">
@@ -4258,7 +4095,7 @@
         <v>122</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.15">
@@ -4275,7 +4112,7 @@
         <v>93</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.15">
@@ -4286,7 +4123,7 @@
         <v>124</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.15">
@@ -4297,7 +4134,7 @@
         <v>102</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.15">
@@ -4308,7 +4145,7 @@
         <v>22</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.15">
@@ -4319,7 +4156,7 @@
         <v>126</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.15">
@@ -4336,7 +4173,7 @@
         <v>93</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.15">
@@ -4347,7 +4184,7 @@
         <v>128</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.15">
@@ -4358,7 +4195,7 @@
         <v>102</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.15">
@@ -4369,7 +4206,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.15">
@@ -4380,7 +4217,7 @@
         <v>129</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.15">
@@ -4394,7 +4231,7 @@
         <v>131</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.15">
@@ -4408,7 +4245,7 @@
         <v>133</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.15">
@@ -4425,7 +4262,7 @@
         <v>136</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.15">
@@ -4436,7 +4273,7 @@
         <v>138</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.15">
@@ -4450,7 +4287,7 @@
         <v>141</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
@@ -4461,7 +4298,7 @@
         <v>143</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
@@ -4472,7 +4309,7 @@
         <v>145</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
@@ -4483,7 +4320,7 @@
         <v>147</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
@@ -4497,7 +4334,7 @@
         <v>151</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
@@ -4508,7 +4345,7 @@
         <v>152</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
@@ -4531,7 +4368,7 @@
         <v>174</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.15">
@@ -4542,7 +4379,7 @@
         <v>159</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
@@ -4553,7 +4390,7 @@
         <v>175</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.15">
@@ -4570,7 +4407,7 @@
         <v>170</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
@@ -4581,7 +4418,7 @@
         <v>171</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
@@ -4592,7 +4429,7 @@
         <v>171</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
@@ -4603,7 +4440,7 @@
         <v>172</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
@@ -4614,7 +4451,7 @@
         <v>173</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
@@ -4625,7 +4462,7 @@
         <v>173</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
@@ -4636,7 +4473,7 @@
         <v>170</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
@@ -4647,7 +4484,7 @@
         <v>176</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
@@ -4658,7 +4495,7 @@
         <v>171</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
@@ -4678,7 +4515,7 @@
         <v>180</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
@@ -4695,7 +4532,7 @@
         <v>186</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.15">
@@ -4706,7 +4543,7 @@
         <v>187</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
@@ -4717,7 +4554,7 @@
         <v>188</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
@@ -4728,7 +4565,7 @@
         <v>189</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
@@ -4751,7 +4588,7 @@
         <v>194</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
@@ -4762,7 +4599,7 @@
         <v>196</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.15">
@@ -4773,7 +4610,7 @@
         <v>198</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.15">
@@ -4784,18 +4621,18 @@
         <v>200</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F78" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>201</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
@@ -4809,7 +4646,7 @@
         <v>203</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.15">
@@ -4842,7 +4679,7 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F83" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>210</v>
@@ -4920,7 +4757,7 @@
         <v>225</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.15">
@@ -4934,7 +4771,7 @@
         <v>231</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.15">
@@ -4945,7 +4782,7 @@
         <v>232</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.15">
@@ -4956,7 +4793,7 @@
         <v>233</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.15">
@@ -4967,7 +4804,7 @@
         <v>234</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.15">
@@ -4981,7 +4818,7 @@
         <v>240</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.15">
@@ -4992,7 +4829,7 @@
         <v>241</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
@@ -5003,7 +4840,7 @@
         <v>242</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
@@ -5014,7 +4851,7 @@
         <v>243</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
@@ -5028,7 +4865,7 @@
         <v>248</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
@@ -5036,10 +4873,10 @@
         <v>245</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
@@ -5050,7 +4887,7 @@
         <v>242</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
@@ -5061,7 +4898,7 @@
         <v>243</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.15">
@@ -5075,7 +4912,7 @@
         <v>250</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
@@ -5086,7 +4923,7 @@
         <v>253</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
@@ -5097,7 +4934,7 @@
         <v>254</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
@@ -5111,7 +4948,7 @@
         <v>256</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
@@ -5131,7 +4968,7 @@
         <v>248</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
@@ -5148,7 +4985,7 @@
         <v>248</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
@@ -5159,10 +4996,10 @@
         <v>262</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="I110" s="39" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="I110" s="37" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
@@ -5175,7 +5012,7 @@
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F112" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>265</v>
@@ -5195,7 +5032,7 @@
         <v>269</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
@@ -5206,10 +5043,10 @@
         <v>270</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="I114" s="39" t="s">
-        <v>468</v>
+        <v>454</v>
+      </c>
+      <c r="I114" s="37" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
@@ -5220,10 +5057,10 @@
         <v>272</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="I115" s="39" t="s">
-        <v>469</v>
+        <v>462</v>
+      </c>
+      <c r="I115" s="37" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
@@ -5240,7 +5077,7 @@
         <v>275</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
@@ -5251,7 +5088,7 @@
         <v>276</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
@@ -5265,7 +5102,7 @@
         <v>280</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.15">
@@ -5276,10 +5113,10 @@
         <v>281</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="I119" s="39" t="s">
-        <v>460</v>
+        <v>451</v>
+      </c>
+      <c r="I119" s="37" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.15">
@@ -5313,7 +5150,7 @@
         <v>288</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
@@ -5324,7 +5161,7 @@
         <v>289</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
@@ -5335,7 +5172,7 @@
         <v>290</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="33" x14ac:dyDescent="0.15">
@@ -5365,10 +5202,10 @@
         <v>296</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I127" s="39" t="s">
-        <v>491</v>
+        <v>472</v>
+      </c>
+      <c r="I127" s="37" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
@@ -5382,10 +5219,10 @@
         <v>301</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I128" s="39" t="s">
-        <v>478</v>
+        <v>472</v>
+      </c>
+      <c r="I128" s="37" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.15">
@@ -5396,10 +5233,10 @@
         <v>302</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I129" s="39" t="s">
-        <v>478</v>
+        <v>472</v>
+      </c>
+      <c r="I129" s="37" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.15">
@@ -5410,7 +5247,7 @@
         <v>304</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.15">
@@ -5427,7 +5264,7 @@
         <v>288</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="4:9" x14ac:dyDescent="0.15">
@@ -5438,7 +5275,7 @@
         <v>305</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="4:9" x14ac:dyDescent="0.15">
@@ -5449,7 +5286,7 @@
         <v>306</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="4:9" x14ac:dyDescent="0.15">
@@ -5463,7 +5300,7 @@
         <v>310</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="4:9" ht="33" x14ac:dyDescent="0.15">
@@ -5474,10 +5311,10 @@
         <v>311</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="I135" s="39" t="s">
-        <v>473</v>
+        <v>468</v>
+      </c>
+      <c r="I135" s="37" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.15">
@@ -5501,16 +5338,16 @@
     </row>
     <row r="138" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E138" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I138" s="39" t="s">
-        <v>477</v>
+        <v>472</v>
+      </c>
+      <c r="I138" s="37" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="4:9" x14ac:dyDescent="0.15">
@@ -5527,7 +5364,7 @@
         <v>318</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="4:9" x14ac:dyDescent="0.15">
@@ -5538,7 +5375,7 @@
         <v>319</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.15">
@@ -5552,7 +5389,7 @@
         <v>323</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.15">
@@ -5563,7 +5400,7 @@
         <v>324</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.15">
@@ -5577,7 +5414,7 @@
         <v>328</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="4:9" x14ac:dyDescent="0.15">
@@ -5588,7 +5425,7 @@
         <v>330</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="4:9" x14ac:dyDescent="0.15">
@@ -5601,43 +5438,43 @@
     </row>
     <row r="146" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E146" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F146" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="147" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F147" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="G147" s="6" t="s">
-        <v>486</v>
-      </c>
       <c r="H147" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F148" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="149" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F149" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G149" s="6" t="s">
-        <v>488</v>
-      </c>
       <c r="H149" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="4:9" ht="82.5" x14ac:dyDescent="0.15">
@@ -5651,18 +5488,18 @@
         <v>334</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="4:9" ht="82.5" x14ac:dyDescent="0.15">
       <c r="F151" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="4:9" x14ac:dyDescent="0.15">
@@ -5679,7 +5516,7 @@
         <v>318</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="4:9" x14ac:dyDescent="0.15">
@@ -5690,7 +5527,7 @@
         <v>338</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154" spans="4:9" x14ac:dyDescent="0.15">
@@ -5701,10 +5538,10 @@
         <v>339</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="I154" s="39" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="I154" s="37" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="4:9" x14ac:dyDescent="0.15">
@@ -5718,7 +5555,7 @@
         <v>328</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="4:9" x14ac:dyDescent="0.15">
@@ -5729,7 +5566,7 @@
         <v>340</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="4:9" x14ac:dyDescent="0.15">
@@ -5740,10 +5577,10 @@
         <v>341</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="I157" s="39" t="s">
-        <v>500</v>
+        <v>495</v>
+      </c>
+      <c r="I157" s="37" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="4:9" x14ac:dyDescent="0.15">
@@ -5757,7 +5594,7 @@
         <v>345</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="4:9" x14ac:dyDescent="0.15">
@@ -5768,7 +5605,7 @@
         <v>346</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="4:9" x14ac:dyDescent="0.15">
@@ -5785,7 +5622,7 @@
         <v>349</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161" spans="4:9" x14ac:dyDescent="0.15">
@@ -5796,7 +5633,7 @@
         <v>354</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="4:9" x14ac:dyDescent="0.15">
@@ -5807,7 +5644,7 @@
         <v>351</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="4:9" x14ac:dyDescent="0.15">
@@ -5824,7 +5661,7 @@
         <v>357</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="4:9" x14ac:dyDescent="0.15">
@@ -5835,10 +5672,10 @@
         <v>359</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="I164" s="39" t="s">
-        <v>496</v>
+        <v>491</v>
+      </c>
+      <c r="I164" s="37" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="4:9" x14ac:dyDescent="0.15">
@@ -5849,7 +5686,7 @@
         <v>361</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5858,13 +5695,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H118 H120:H1048576">
-    <cfRule type="cellIs" dxfId="20" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="34" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5906,13 +5743,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5935,9 +5772,9 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5971,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>362</v>
       </c>
@@ -5982,328 +5819,384 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D4" s="5">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="41" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F5" s="4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E6" s="40"/>
+      <c r="F6" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G6" s="41" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E6" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E7" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="41" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F7" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="41" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F8" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G9" s="41" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F9" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G10" s="41" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E10" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E11" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G11" s="41" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="F11" s="4" t="s">
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="41" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E12" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E13" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G13" s="41" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F13" s="4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D14" s="5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F15" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F16" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E16" s="4" t="s">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E17" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F17" s="4" t="s">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F18" s="4" t="s">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F19" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F19" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E20" s="4" t="s">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F20" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E21" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F21" s="4" t="s">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F22" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E22" s="4" t="s">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E23" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="4" t="s">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E24" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="4" t="s">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E25" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F25" s="4" t="s">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F26" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F26" s="4" t="s">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F27" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F27" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D28" s="5">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F28" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D29" s="5">
         <v>4</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F29" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F30" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F31" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F32" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F33" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="D33" s="5">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F34" s="4" t="s">
-        <v>409</v>
+        <v>518</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="F35" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F36" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F37" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F38" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D39" s="5">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F42" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -6365,9 +6258,9 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -6421,10 +6314,10 @@
         <v>419</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>517</v>
+        <v>451</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -6435,7 +6328,7 @@
         <v>419</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -6446,7 +6339,7 @@
         <v>422</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -6460,7 +6353,7 @@
         <v>424</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -6474,7 +6367,7 @@
         <v>428</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -6485,10 +6378,10 @@
         <v>429</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>519</v>
+        <v>514</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -6505,7 +6398,7 @@
         <v>428</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -6516,7 +6409,7 @@
         <v>431</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -6530,52 +6423,52 @@
         <v>433</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>507</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F14" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -6583,16 +6476,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>515</v>
+        <v>510</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
@@ -6615,7 +6508,7 @@
         <v>439</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
@@ -6626,7 +6519,7 @@
         <v>440</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
@@ -6640,7 +6533,7 @@
         <v>424</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
@@ -6654,7 +6547,7 @@
         <v>428</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="33" x14ac:dyDescent="0.15">
@@ -6665,10 +6558,10 @@
         <v>441</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>519</v>
+        <v>514</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
@@ -6685,7 +6578,7 @@
         <v>428</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
@@ -6696,7 +6589,7 @@
         <v>431</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
@@ -6710,52 +6603,52 @@
         <v>433</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F28" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F29" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -6825,9 +6718,9 @@
       <c r="A1" s="19"/>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
